--- a/database/generate_data/quiz_question.xlsx
+++ b/database/generate_data/quiz_question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C30449-3F78-4F22-836C-3CA5611F899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B70DEF-58AF-45C0-BC7B-4EF2B4D30F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,51 +54,6 @@
     <t>IS_DELETED</t>
   </si>
   <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t>000005</t>
-  </si>
-  <si>
-    <t>000006</t>
-  </si>
-  <si>
-    <t>000007</t>
-  </si>
-  <si>
-    <t>000008</t>
-  </si>
-  <si>
-    <t>000009</t>
-  </si>
-  <si>
-    <t>000010</t>
-  </si>
-  <si>
-    <t>000011</t>
-  </si>
-  <si>
-    <t>000012</t>
-  </si>
-  <si>
-    <t>000013</t>
-  </si>
-  <si>
-    <t>000014</t>
-  </si>
-  <si>
-    <t>000015</t>
-  </si>
-  <si>
     <t>Bạn có đi học ngày hôm nay không?</t>
   </si>
   <si>
@@ -123,9 +78,6 @@
     <t>cin &gt;&gt; "Hello world!";</t>
   </si>
   <si>
-    <t>000016</t>
-  </si>
-  <si>
     <t>Câu lệnh xuất tổng của 2 biến a, b trong Python là:</t>
   </si>
   <si>
@@ -193,6 +145,54 @@
   </si>
   <si>
     <t>Bí mật</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,8 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -546,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,49 +564,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
-        <v>73001</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -621,25 +619,25 @@
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5">
-        <v>73001</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -650,19 +648,19 @@
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>73002</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -675,25 +673,25 @@
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
-        <v>73002</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -704,19 +702,19 @@
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
-        <v>73003</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -729,25 +727,25 @@
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
-        <v>73003</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -758,19 +756,19 @@
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B8" s="5">
-        <v>73004</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -783,25 +781,25 @@
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
-        <v>73004</v>
+        <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -812,19 +810,19 @@
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
-        <v>73005</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -837,25 +835,25 @@
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
-        <v>73005</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
@@ -866,19 +864,19 @@
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5">
-        <v>73006</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -891,25 +889,25 @@
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5">
-        <v>73006</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H13" s="5">
         <v>2</v>
@@ -920,19 +918,19 @@
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5">
-        <v>73007</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -945,25 +943,25 @@
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5">
-        <v>73007</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -974,19 +972,19 @@
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
-        <v>73008</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -999,25 +997,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5">
-        <v>73008</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
@@ -1025,17 +1023,6 @@
       <c r="I17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/database/generate_data/quiz_question.xlsx
+++ b/database/generate_data/quiz_question.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\import_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Flutter\backend\MiniProject_SE104\database\generate_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B70DEF-58AF-45C0-BC7B-4EF2B4D30F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4EAA53-D4DD-41DF-810A-52184B2F41D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5016" yWindow="852" windowWidth="16956" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>16</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -544,26 +544,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -592,12 +592,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -617,12 +617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -646,12 +646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -671,12 +671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -700,12 +700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -725,12 +725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
@@ -754,12 +754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -779,12 +779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>22</v>
@@ -808,12 +808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
@@ -833,12 +833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>27</v>
@@ -862,12 +862,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -887,12 +887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>27</v>
@@ -916,12 +916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>9</v>
@@ -941,12 +941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>37</v>
@@ -970,12 +970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
@@ -995,12 +995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>32</v>
@@ -1023,6 +1023,13 @@
       <c r="I17" s="5">
         <v>0</v>
       </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/database/generate_data/quiz_question.xlsx
+++ b/database/generate_data/quiz_question.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Flutter\backend\MiniProject_SE104\database\generate_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HOC KI 3\Nhập môn SE\Thực hành\generate_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4EAA53-D4DD-41DF-810A-52184B2F41D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA506858-33BE-4F8E-B344-EF398330F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="852" windowWidth="16956" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
   <si>
     <t>QUESTION_ID</t>
   </si>
@@ -123,30 +123,6 @@
     <t>SELECT X FROM USER</t>
   </si>
   <si>
-    <t>Bạn đánh giá môn học này như thế nào?</t>
-  </si>
-  <si>
-    <t>Quá tệ</t>
-  </si>
-  <si>
-    <t>Tệ</t>
-  </si>
-  <si>
-    <t>Cũng được</t>
-  </si>
-  <si>
-    <t>Tốt</t>
-  </si>
-  <si>
-    <t>Ngày hôm nay của bạn thế nào?</t>
-  </si>
-  <si>
-    <t>Bình thường</t>
-  </si>
-  <si>
-    <t>Bí mật</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -192,7 +168,157 @@
     <t>15</t>
   </si>
   <si>
-    <t>0</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Trong lập trình hướng đối tượng, "encapsulation" (đóng gói) liên quan đến việc nào?</t>
+  </si>
+  <si>
+    <t>Tạo ra các đối tượng từ lớp mẹ.</t>
+  </si>
+  <si>
+    <t>Bảo vệ dữ liệu bên trong một đối tượng và cung cấp các phương thức để truy cập và thay đổi dữ liệu đó.</t>
+  </si>
+  <si>
+    <t>Tạo ra các thực thể từ lớp con.</t>
+  </si>
+  <si>
+    <t>Tạo ra các đối tượng từ lớp cha.</t>
+  </si>
+  <si>
+    <t>Trong lập trình hướng đối tượng, "inheritance" (kế thừa) đề cập đến điều gì?</t>
+  </si>
+  <si>
+    <t>Quá trình tạo ra một bản sao của một đối tượng từ một lớp mẹ.</t>
+  </si>
+  <si>
+    <t>Tính năng của đối tượng được truy cập qua các phương thức.</t>
+  </si>
+  <si>
+    <t>Khả năng một lớp con lấy các thuộc tính và phương thức từ lớp mẹ.</t>
+  </si>
+  <si>
+    <t>Quá trình thiết kế và tạo ra các đối tượng từ các lớp con.</t>
+  </si>
+  <si>
+    <t>"Polymorphism" (nhiều hình thái) trong lập trình hướng đối tượng liên quan đến điều gì?</t>
+  </si>
+  <si>
+    <t>Sự kế thừa từ nhiều lớp mẹ.</t>
+  </si>
+  <si>
+    <t>Khả năng một phương thức có thể thực hiện nhiều hành vi khác nhau tùy thuộc vào ngữ cảnh sử dụng.</t>
+  </si>
+  <si>
+    <t>Mô tả số lượng lớp con mà một lớp mẹ có thể có.</t>
+  </si>
+  <si>
+    <t>Quá trình gói các phương thức và dữ liệu liên quan vào một đối tượng.</t>
+  </si>
+  <si>
+    <t>Trong cấu trúc dữ liệu, "stack" (ngăn xếp) hoạt động theo nguyên tắc nào?</t>
+  </si>
+  <si>
+    <t>LIFO</t>
+  </si>
+  <si>
+    <t>FIFO</t>
+  </si>
+  <si>
+    <t>Phần tử có giá trị lớn nhất được lấy ra trước.</t>
+  </si>
+  <si>
+    <t>Phần tử ở giữa sẽ được lấy ra trước.</t>
+  </si>
+  <si>
+    <t>Trong giải thuật sắp xếp, "Quick Sort" sử dụng phương pháp chia để trị dựa trên nguyên lý nào?</t>
+  </si>
+  <si>
+    <t>Sắp xếp trực tiếp.</t>
+  </si>
+  <si>
+    <t>Sắp xếp trên mảng 2 chiều.</t>
+  </si>
+  <si>
+    <t>Chia mảng thành các phần nhỏ, sắp xếp từng phần, sau đó kết hợp chúng.</t>
+  </si>
+  <si>
+    <t>So sánh tất cả cặp phần tử để sắp xếp chúng.</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Trong cơ sở dữ liệu quan hệ, "khóa ngoại" (foreign key) được sử dụng để làm gì?</t>
+  </si>
+  <si>
+    <t>Xác định thuộc tính chính của bảng</t>
+  </si>
+  <si>
+    <t>Xác định một hàng trong bảng</t>
+  </si>
+  <si>
+    <t>Xác định mối quan hệ giữa các bảng</t>
+  </si>
+  <si>
+    <t> Xác định giá trị duy nhất của mỗi cột</t>
+  </si>
+  <si>
+    <t>Nhóm làm đồ án này có bao nhiêu thành viên?</t>
+  </si>
+  <si>
+    <t>Mục tiêu sau này của bạn là:</t>
+  </si>
+  <si>
+    <t>Trở thành dev, kiếm 100 củ 1 tháng</t>
+  </si>
+  <si>
+    <t>Trở thành nhà nghiên cứu.</t>
+  </si>
+  <si>
+    <t>Trở thành CEO.</t>
+  </si>
+  <si>
+    <t>Huỷ diệt thế giới.</t>
+  </si>
+  <si>
+    <t>Pair programing là:</t>
+  </si>
+  <si>
+    <t>Lập trình cặp</t>
+  </si>
+  <si>
+    <t>Lập trình theo cặp</t>
+  </si>
+  <si>
+    <t>Lập trình uyên ương</t>
+  </si>
+  <si>
+    <t>Lập trình đôi</t>
+  </si>
+  <si>
+    <t>Tạm biệt.</t>
+  </si>
+  <si>
+    <t>Hẹn gặp lại</t>
+  </si>
+  <si>
+    <t>See you tomorrow</t>
+  </si>
+  <si>
+    <t>Nấu ăn</t>
+  </si>
+  <si>
+    <t>Tạm biệt</t>
   </si>
 </sst>
 </file>
@@ -544,26 +670,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -592,12 +718,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
@@ -617,41 +743,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -671,41 +793,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
@@ -725,107 +843,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
       <c r="H10" s="5">
         <v>0</v>
       </c>
@@ -833,107 +955,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5">
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="H14" s="5">
         <v>0</v>
       </c>
@@ -941,27 +1071,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -970,52 +1100,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
@@ -1024,12 +1158,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
